--- a/data/constraints.xlsx
+++ b/data/constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\folio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B578CD-C358-41A4-BFE9-840E63231835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688D915-4618-40B0-81DA-FFA42EFA4814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Disabled</t>
   </si>
@@ -70,24 +70,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>消费电子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑施工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械制造</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源化工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融证券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>CTA趋势精选指数</t>
+  </si>
+  <si>
+    <t>对冲策略精选指数</t>
+  </si>
+  <si>
+    <t>股票策略精选指数</t>
+  </si>
+  <si>
+    <t>宏观策略精选指数</t>
+  </si>
+  <si>
+    <t>市场中性精选指数</t>
+  </si>
+  <si>
+    <t>事件驱动精选指数</t>
+  </si>
+  <si>
+    <t>套利策略精选指数</t>
+  </si>
+  <si>
+    <t>债券基金精选指数</t>
   </si>
 </sst>
 </file>
@@ -445,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -626,6 +630,66 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
